--- a/Docs/Addressbook.xlsx
+++ b/Docs/Addressbook.xlsx
@@ -295,7 +295,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <x:protection locked="0"/>
     </x:xf>
@@ -309,6 +309,78 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -756,7 +828,7 @@
     <x:col min="6" max="16384" width="9.140625" style="8" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -778,8 +850,14 @@
       <x:c r="G1" s="12">
         <x:v>43907</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H1" s="12">
+        <x:v>43908</x:v>
+      </x:c>
+      <x:c r="I1" s="12">
+        <x:v>43909</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A2" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -799,8 +877,14 @@
       <x:c r="G2" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H2" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A3" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -820,8 +904,14 @@
       <x:c r="G3" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="H3" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I3" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -841,8 +931,14 @@
       <x:c r="G4" s="9" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H4" s="9" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I4" s="9" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A5" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -862,8 +958,14 @@
       <x:c r="G5" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H5" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I5" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A6" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -883,8 +985,14 @@
       <x:c r="G6" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H6" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -901,8 +1009,14 @@
       <x:c r="G7" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H7" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A8" s="9" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -922,8 +1036,14 @@
       <x:c r="G8" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H8" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I8" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A9" s="9" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -943,8 +1063,14 @@
       <x:c r="G9" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H9" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I9" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A10" s="9" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -961,8 +1087,14 @@
       <x:c r="G10" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H10" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I10" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -982,8 +1114,14 @@
       <x:c r="G11" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H11" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I11" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A12" s="9" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1003,8 +1141,14 @@
       <x:c r="G12" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H12" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I12" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A13" s="9" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1024,8 +1168,14 @@
       <x:c r="G13" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H13" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I13" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A14" s="9" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -1045,8 +1195,14 @@
       <x:c r="G14" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H14" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I14" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A15" s="9" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1066,8 +1222,14 @@
       <x:c r="G15" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H15" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I15" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A16" s="9" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1087,8 +1249,14 @@
       <x:c r="G16" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H16" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I16" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A17" s="9" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -1108,8 +1276,14 @@
       <x:c r="G17" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H17" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I17" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A18" s="9" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -1129,8 +1303,14 @@
       <x:c r="G18" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H18" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I18" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
         <x:v>39</x:v>
       </x:c>
@@ -1150,8 +1330,14 @@
       <x:c r="G19" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H19" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I19" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A20" s="9" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1171,8 +1357,14 @@
       <x:c r="G20" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H20" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I20" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A21" s="9" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -1192,8 +1384,14 @@
       <x:c r="G21" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H21" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I21" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A22" s="9" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -1213,8 +1411,14 @@
       <x:c r="G22" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H22" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I22" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1231,8 +1435,14 @@
       <x:c r="G23" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H23" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I23" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A24" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -1252,8 +1462,14 @@
       <x:c r="G24" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H24" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I24" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A25" s="9" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -1270,8 +1486,14 @@
       <x:c r="G25" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H25" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I25" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A26" s="9" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -1291,8 +1513,14 @@
       <x:c r="G26" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H26" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I26" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A27" s="9" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -1312,8 +1540,14 @@
       <x:c r="G27" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H27" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I27" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="s">
         <x:v>57</x:v>
       </x:c>
@@ -1333,8 +1567,14 @@
       <x:c r="G28" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H28" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I28" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A29" s="9" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -1354,8 +1594,14 @@
       <x:c r="G29" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H29" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I29" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A30" s="9" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -1372,8 +1618,14 @@
       <x:c r="G30" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="H30" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I30" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A31" s="9" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -1388,6 +1640,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G31" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H31" s="8" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I31" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
